--- a/biology/Médecine/Faculté_de_médecine_et_de_pharmacie_de_l'université_d'Oradea/Faculté_de_médecine_et_de_pharmacie_de_l'université_d'Oradea.xlsx
+++ b/biology/Médecine/Faculté_de_médecine_et_de_pharmacie_de_l'université_d'Oradea/Faculté_de_médecine_et_de_pharmacie_de_l'université_d'Oradea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine_et_de_pharmacie_de_l%27universit%C3%A9_d%27Oradea</t>
+          <t>Faculté_de_médecine_et_de_pharmacie_de_l'université_d'Oradea</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La Faculté de médecine et de pharmacie de l'université d'Oradea est un établissement universitaire public d'Oradea en Roumanie, fondé en 1991, rattaché à l'université d'Oradea.
 Faculté publique, inscrite sur IMED et WHO, reconnue par l'Union européenne. Le diplôme accordé au bout des 6 années est la "licenta de doctor medic" qui est reconnu en France d'après les accords sur la reconnaissance des diplômes européens comme équivalent au "doctorat en médecine" français.
-Elle a obtenu l'accréditation définitive en 2010 par l'agence gouvernementale ARACIS[1].
+Elle a obtenu l'accréditation définitive en 2010 par l'agence gouvernementale ARACIS.
 Le cursus est de six ans, l'enseignement en anglais
 L'inscription à l'université requiert l'obtention préalable d'une lettre d'acceptation du ministère Roumain.
 Aperçu du programme
